--- a/processed_properties.xlsx
+++ b/processed_properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlbanaZejnullahi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC38777-EE79-4DFB-A81D-E6A066681271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3110DBBE-FCF7-42C2-A961-5BC8FCCFC13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6A73989-3CEB-4B5D-9434-0D88FB5EDD02}"/>
   </bookViews>
@@ -914,7 +914,144 @@
 Monitoring ATR, traffic, and leases for both the property and comps is crucial to ensure the balance of supply and demand remains favorable. The comps are in a relatively better position with lower ATR and higher closing ratios, but their decreasing leasing and traffic trends should be closely monitored.</t>
   </si>
   <si>
-    <t xml:space="preserve">[5:26 PM] Albana Zejnullahi
+    <t>Vivere Apartments Analysis
+Current Performance Analysis
+Vivere Apartments, a stabilized property with 174 units, shows strong performance with a high occupancy of 97%, up by 1.3%. The RevPau has increased by 5.1% to $2953, driven by a 3.8% increase in Net Effective Rent (NER) to $3060, reflecting robust revenue growth and high occupancy.
+In comparison, the comps, with an average of 131 units, have an occupancy of 96%, with a minor increase of 0.3%. Their RevPau has increased by 6.1% to $3558, driven by a 5.8% increase in NER to $3723. This indicates that the comps are performing well in terms of rent and revenue growth, but Vivere Apartments has a higher occupancy rate.
+Leading Indicators
+ATR %:
+Vivere Apartments: ATR is 2%, with a slight negative slope of -0.01, indicating stable availability. An ATR below 6% is generally recognized as optimal, suggesting good management of supply.
+Comps: ATR is 5%, with a negative slope of -0.598, indicating decreasing availability. The comps are also maintaining a good balance between supply and demand.
+Traffic per Week:
+Vivere Apartments: Traffic is 7 per week, with a negative slope of -0.3, indicating a decrease in visitor traffic. Based on historical data, Vivere Apartments needs 8 traffic pieces per week to meet leasing targets and maintain a healthy occupancy rate. Currently, the property is slightly below this target.
+Comps: Traffic is 8 per week, with a positive slope of 0.93, indicating an increase in visitor traffic. The comps need 8 traffic pieces per week to meet their leasing targets and are currently meeting this criterion.
+Leases per Week:
+Vivere Apartments: Leases are 0 per week, with a negative slope of -0.5, indicating a lack of lease signings. Based on historical data, Vivere Apartments needs 4 leases per week to achieve a 6% ATR in 60 days. This is a critical area for improvement to maintain occupancy and revenue growth.
+Comps: Leases are 3 per week, with a positive slope of 0.17, indicating stable leasing activity. The comps need 3 leases per week to manage their ATR effectively and are currently meeting this target.
+Overall Analysis
+The leading indicators for Vivere Apartments suggest a need for strategies to improve lease signings and traffic conversion rates. While the property has a high occupancy rate and positive revenue growth, the zero leases per week and low closing ratio are areas of concern.
+The comps are performing better in terms of RevPau, Net Effective Rent, and lease signings. They are also attracting slightly more traffic per week with a higher closing ratio, indicating effective conversion strategies. The closing ratio for Vivere Apartments is 0.19, significantly lower than the comps' 0.4, indicating a need to improve the conversion rate of traffic into leases to sustain and enhance market position.</t>
+  </si>
+  <si>
+    <t>Alister Galleria Analysis
+Current Performance Analysis
+Alister Galleria, a stabilized property with 219 units, shows a high occupancy of 97%, up by 1.6%. The RevPau has increased by 2.6% to $1436, driven by a 1.1% increase in Net Effective Rent (NER) to $1488. This reflects steady revenue growth and high occupancy.
+In comparison, the comps, with an average of 305 units, have an occupancy of 94%, with a decrease of 0.6%. Their RevPau has decreased by 0.8% to $1385, driven by a 0.7% decrease in NER to $1520. This indicates that the comps are experiencing a slight decline in both revenue and rent.
+Leading Indicators
+ATR %:
+Alister Galleria: ATR is 1%, with a negative slope of -0.17, indicating decreasing availability. An ATR below 6% is generally recognized as optimal, suggesting good management of supply.
+Comps: ATR is 5%, with a negative slope of -0.362, indicating decreasing availability. The comps are also maintaining a good balance between supply and demand.
+Traffic per Week:
+Alister Galleria: Traffic is 0 per week, with a significant negative slope of -1.8, indicating a lack of visitor traffic. Based on historical data, Alister Galleria needs 7 traffic pieces per week to meet leasing targets and maintain a healthy occupancy rate. Currently, the property is well below this target.
+Comps: Traffic is 7 per week, with a negative slope of -1.09, indicating a decrease in visitor traffic. The comps need 7 traffic pieces per week to meet their leasing targets and are currently meeting this criterion.
+Leases per Week:
+Alister Galleria: Leases are 0 per week, with a negative slope of -0.5, indicating a lack of lease signings. Based on historical data, Alister Galleria needs 3 leases per week to achieve a 6% ATR in 60 days. This is a critical area for improvement to maintain occupancy and revenue growth.
+Comps: Leases are 3 per week, with a negative slope of -0.28, indicating stable leasing activity. The comps need 3 leases per week to manage their ATR effectively and are currently meeting this target.
+Overall Analysis
+The leading indicators for Alister Galleria suggest a need for strategies to improve lease signings and traffic conversion rates. While the property has a high occupancy rate and positive revenue growth, the zero leases per week, lack of traffic, and moderate closing ratio are areas of concern.
+The comps are performing better in terms of lease signings and have a higher closing ratio, which helps in maintaining occupancy and revenue. The closing ratio for Alister Galleria is 0.26, significantly lower than the comps' 0.43, indicating a need to improve the conversion rate of traffic into leases to sustain and enhance market position.</t>
+  </si>
+  <si>
+    <t>Modera Trinity Analysis
+Current Performance Analysis
+Modera Trinity has 194 units, currently showing an occupancy of 14%, which has increased by 123%. The RevPau has increased significantly by 114% to $314. However, the Net Effective Rent (NER) has decreased by 4% to $2210. Despite the high increase in occupancy and RevPau, the property is facing rent sensitivity as indicated by the decrease in NER.
+Comps Data: The comps have an average of 309 units with an occupancy of 74%, which has increased by 4%. Their RevPau is $1234, up by 4%, while their NER is $1686, showing a slight decrease of 1%. This suggests that while comps are seeing modest revenue growth, they are also facing rent sensitivity.
+Leading Indicators
+ATR %:
+Modera Trinity: ATR is 81%, with a negative slope of -1.7, indicating a decreasing trend. An ATR above 10% suggests oversupply, which can lead to increased competition and pressure on rents.
+Comps: ATR is 22%, with a positive slope of 1.036, indicating an increasing trend in availability, although it is much lower than Modera Trinity's ATR.
+Traffic per Week:
+Modera Trinity: Traffic is 19 per week, with a positive slope of 2.8, indicating an increase in visitor traffic. Based on historical data, Modera Trinity needs to maintain at least 19 traffic pieces per week to meet leasing targets and manage ATR effectively. Currently, the property is meeting this criterion.
+Comps: Traffic is 14 per week, with a negative slope of -0.81, indicating a decrease in traffic. The comps need 14 traffic pieces per week to meet their leasing targets. While they are currently meeting this criterion, the downward trend is concerning.
+Leases per Week:
+Modera Trinity: Leases are 10 per week, with a positive slope of 1.2, indicating strong leasing activity. Modera Trinity averages 10 leases per week, which meets the threshold needed to manage its high ATR. The positive trend suggests an improving leasing performance.
+Comps: Leases are 5 per week, with a positive slope of 0.32, indicating stable leasing activity. The comps need to maintain or increase this rate to manage their ATR effectively.
+Overall Analysis
+The leading indicators for Modera Trinity suggest that while the property is generating substantial traffic and leasing activity, the high ATR % indicates a significant oversupply of available units. This oversupply needs to be managed to improve overall performance. The decreasing NER also indicates rent sensitivity, which may require strategic pricing adjustments or concessions to attract and retain tenants.
+Comps are experiencing stable occupancy and RevPau growth, but they also face challenges with decreasing traffic and a lower closing ratio. They need to monitor their increasing ATR and work on strategies to boost traffic and leasing activity.
+For Modera Trinity, the focus should be on maintaining high leasing activity and traffic while working to reduce the ATR %. Strategies to improve the closing ratio and manage rent sensitivity, such as targeted marketing and promotions, could help enhance performance. Monitoring both the property and comps' metrics closely will be crucial for making informed strategic decisions.</t>
+  </si>
+  <si>
+    <t>Modera Broadway Analysis
+Current Performance Analysis
+Modera Broadway, a stabilized property with 228 units, demonstrates strong market performance with an occupancy rate of 97.4%, up by 1.0%. However, despite this high occupancy, there is a slight decline in revenue metrics, with RevPau decreasing by 1.7% to $2313 and Net Effective Rent (NER) down by 2.7% to $2375. This suggests potential rent sensitivity, possibly due to market competition or pricing adjustments.
+In comparison, the comps, averaging 220 units, have a slightly lower occupancy at 95%, with a 0.6% increase. Their RevPau is higher at $2436, showing a modest increase of 0.6%, despite a 1.7% decrease in NER to $2532. The comps maintain higher revenue figures, possibly benefiting from a different pricing strategy or market positioning.
+Leading Indicators
+ATR %:
+Modera Broadway: The ATR is 5%, with a decreasing slope of -0.44, indicating a declining availability of units. This lower ATR is favorable and suggests healthy demand relative to the supply of units.
+Comps: The ATR is slightly higher at 5%, with a positive slope of 0.376, indicating a slight increase in available units. This upward trend in ATR could signal a need for increased leasing efforts.
+Traffic per Week:
+Modera Broadway: The property generates significant traffic with 31 visitors per week, trending upwards with a positive slope of 3. Based on historical data, Modera Broadway requires approximately 28 traffic pieces per week to maintain optimal leasing activity and occupancy levels. The current traffic exceeds this target, indicating strong market interest and effective marketing strategies.
+Comps: The comps experience much lower traffic, averaging 8 visits per week, with a positive slope of 1. The comps need about 8 traffic pieces per week to meet their leasing goals. While the current traffic is slightly below this target, the upward trend is encouraging for future leasing potential.
+Leases per Week:
+Modera Broadway: The property averages 3 leases per week, despite a downward trend with a slope of -0.3. This meets the historical threshold of 3 leases needed per week to sustain healthy occupancy and ATR levels. However, the declining trend suggests potential issues with lead conversion or market saturation, which may require strategic adjustments.
+Comps: The comps sign an average of 3 leases per week, with a slight positive slope of 1, showing a stable and slightly improving trend. This performance is slightly below the 3 leases per week target, indicating a need for strategies to boost lease conversions and occupancy.
+Overall Analysis
+Modera Broadway's leading indicators reflect a property that is performing well in terms of traffic generation and occupancy but experiencing some challenges in maintaining revenue growth and lease conversion rates. The property's ability to generate significant traffic suggests strong market appeal, but the slightly declining lease rate indicates that not all visitors are being successfully converted into tenants.
+To maintain and improve performance, a focus on enhancing the lease conversion process and possibly adjusting rental rates or incentives could be beneficial. The comps, while maintaining higher RevPau, are experiencing lower traffic and slightly better conversion rates, indicating a different set of challenges and opportunities. Both Modera Broadway and the comps need to carefully manage traffic and lease conversions to optimize occupancy and revenue outcomes.</t>
+  </si>
+  <si>
+    <t>Ten01 Analysis
+Current Performance Analysis
+Ten01, a stabilized property with 523 units, shows a moderate occupancy rate of 86%, which has decreased by 0.2%. Despite this slight drop in occupancy, the property has seen a significant increase in revenue metrics, with RevPau rising by 12.1% to $1566 and Net Effective Rent (NER) increasing by 12.3% to $1823. This strong growth in RevPau and NER indicates successful rent increases or improved revenue management strategies.
+In comparison, the comps, averaging 297 units, have a higher occupancy at 92%, with a slight increase of 0.1%. The comps' RevPau stands at $1813, reflecting a modest increase of 0.7%, while their NER is $1971, up by 0.6%. The comps maintain higher revenue figures but show less growth in rent compared to Ten01.
+Leading Indicators
+ATR %:
+Ten01: The ATR is 4%, with a decreasing slope of -0.24, indicating a reduction in available units. This relatively low ATR is favorable and suggests good demand management, with a limited number of vacant units.
+Comps: The ATR is higher at 8%, with a similar slope of -0.24, indicating a steady rate of decline. The higher ATR among comps suggests they have more units available, possibly indicating less demand pressure.
+Traffic per Week:
+Ten01: The property sees 26 traffic visits per week, though this is decreasing with a slope of -2.2. Based on historical data, Ten01 requires around 27 traffic pieces per week to sustain optimal leasing activity. The current traffic falls slightly short of this target, suggesting a need for increased marketing efforts to attract more potential tenants.
+Comps: The comps experience significantly lower traffic, averaging 11 visits per week, with a slight positive slope of 1. They need about 11 traffic pieces per week to meet their leasing targets, which they are currently achieving, though the low volume could impact future lease conversions.
+Leases per Week:
+Ten01: The property averages 5 leases per week, though this number is trending down with a slope of -1.3. This meets the historical threshold of approximately 5 leases needed per week to maintain healthy occupancy and ATR levels. However, the declining trend in leases is a concern and may indicate challenges in conversion or market competition.
+Comps: The comps average 4 leases per week, with a slight positive slope of 1. This stable leasing performance meets the target of 4 leases needed per week, suggesting consistent demand and effective leasing strategies.
+Overall Analysis
+The analysis for Ten01 indicates that while the property is achieving strong revenue growth through increased RevPau and NER, it is experiencing challenges in maintaining traffic and lease conversions. The declining traffic and leases per week suggest a potential saturation or need for renewed marketing and tenant engagement strategies. The property's relatively low ATR % indicates good control over unit availability, but sustaining high occupancy while growing rent revenues may require enhanced leasing efforts.
+In comparison, the comps exhibit higher occupancy and RevPau but with less aggressive growth in rent metrics. The higher ATR % among comps suggests they have a greater cushion of available units, possibly indicating less competitive pressure or more strategic leasing plans.
+For Ten01, focusing on increasing traffic to meet or exceed the required 27 visits per week and improving the conversion rate will be key to maintaining and enhancing performance. The comps' stable leasing performance and higher closing ratio of 0.44 highlight a more efficient conversion process, which Ten01 could aim to emulate or exceed to improve occupancy and revenue metrics further.</t>
+  </si>
+  <si>
+    <t>Modera Frisco Square Analysis
+Current Performance Analysis
+Modera Frisco Square, a stabilized property with 360 units, maintains a solid occupancy rate of 93%, up by 0.9%. However, the property is experiencing declines in revenue metrics, with RevPau decreasing by 6.2% to $1676 and Net Effective Rent (NER) dropping by 6.9% to $1797. These declines suggest possible rent concessions or market competition challenges affecting pricing power.
+In comparison, the comps, with an average of 329 units, show a significantly lower occupancy rate at 74%, though this has increased by 0.5%. The comps' RevPau stands at $1328, reflecting a modest increase of 1.5%, while their NER is $1804, up by 2.0%. Despite their lower occupancy, the comps manage a slight increase in revenue, indicating possibly better rent control or fewer discounts.
+Leading Indicators
+ATR %:
+Modera Frisco Square: The ATR is 9%, with a slight upward trend indicated by a slope of 0.07. This relatively high ATR suggests a notable number of available units, possibly indicating over-supply or weak demand.
+Comps: The ATR is significantly higher at 12%, with a slight downward slope of -0.19. The decreasing ATR suggests some improvement in filling vacancies, but the high value still indicates a substantial number of unoccupied units.
+Traffic per Week:
+Modera Frisco Square: The property receives an average of 17 visits per week, with no significant change, indicated by a slope of 0. Based on historical data, Modera Frisco Square requires approximately 25 traffic pieces per week to achieve optimal leasing targets. The current traffic falls short of this target, highlighting a need for increased marketing efforts to drive more prospective tenants to the property.
+Comps: The comps average 17 visits per week, with a slight positive slope of 1. They require about 25 traffic pieces per week, similar to the subject property, to meet leasing targets. The comps are currently below this threshold, suggesting challenges in generating sufficient interest.
+Leases per Week:
+Modera Frisco Square: The property signs an average of 2 leases per week, with a declining trend as indicated by a slope of -0.3. This performance meets only a fraction of the estimated need of 7 leases per week to maintain a healthy occupancy and ATR level, pointing to issues in converting traffic to signed leases.
+Comps: The comps average 4 leases per week, also with a declining slope of -0.42. To meet the threshold of achieving a 6% ATR in 60 days, the comps need to sign approximately 8 leases per week. Currently, they are 4 leases short of this target, highlighting more efficient tenant conversion is necessary.
+Overall Analysis
+Modera Frisco Square shows a stable occupancy but faces significant challenges in revenue metrics and leasing activity. The declining RevPau and NER suggest pressures to offer concessions or lower rents to maintain occupancy. The high ATR indicates a substantial number of vacant units, further complicating the property's market position. The property is also underperforming in traffic and leases per week, falling short of the required targets to sustain optimal operational levels.
+In comparison, the comps, while having a lower occupancy, manage to slightly increase their RevPau and NER. They also face a high ATR but show a minor improvement. The comps' higher closing ratio of 0.29 compared to Modera Frisco Square's 0.2 indicates more effective conversion of traffic into leases.
+For Modera Frisco Square, a strategic focus on boosting traffic through enhanced marketing and improving lease conversions will be crucial. Addressing the high ATR by either filling units more aggressively or re-evaluating pricing strategies to align with market conditions can help improve revenue outcomes. The comps' slightly better performance in revenue growth and conversion rates provides a benchmark for setting achievable targets and strategies.</t>
+  </si>
+  <si>
+    <t>The Carson Townhomes Analysis
+Current Performance Analysis
+The Carson Townhomes, a stabilized property with 40 units, currently has an occupancy rate of 88%, which has increased by 6.1%. The property has experienced strong growth in revenue metrics, with RevPau increasing by 9.6% to $2177 and Net Effective Rent (NER) rising by 3.3% to $2488. This positive trend in RevPau and NER indicates effective rent growth and management strategies.
+In comparison, the comps, with an average of 253 units, have a slightly higher occupancy rate at 90%, though it has decreased by 0.2%. The comps' RevPau stands at $1939, reflecting a modest increase of 3.1%, while their NER is $2137, up by 2.5%. The comps' lower RevPau and NER compared to The Carson Townhomes suggest that the subject property is capturing a premium in the market.
+Leading Indicators
+ATR %:
+The Carson Townhomes: The ATR is 10%, with a stable trend indicated by a slope of 0.0. This relatively high ATR suggests a significant number of available units, indicating an opportunity to improve occupancy rates further.
+Comps: The ATR is lower at 4%, with a decreasing slope of -0.953, indicating a reduction in available units. The lower ATR among comps suggests stronger demand or better unit absorption.
+Traffic per Week:
+The Carson Townhomes: The property currently reports no traffic per week, with a negative slope of -0.75. Based on historical data, The Carson Townhomes requires approximately 8 traffic pieces per week to meet optimal leasing targets. The absence of traffic is a significant concern, indicating a potential issue with marketing or visibility in the market.
+Comps: The comps experience an average of 11 visits per week, with a slight negative slope of -0.02. The comps need about 8 traffic pieces per week to meet leasing goals, indicating they are currently generating sufficient interest to meet their targets.
+Leases per Week:
+The Carson Townhomes: The property signs an average of 1 lease per week, with a slight upward trend as indicated by a slope of 0.15. This meets only a portion of the estimated need of approximately 3 leases per week to achieve a 6% ATR in 60 days, pointing to challenges in attracting and converting prospective tenants.
+Comps: The comps average 4 leases per week, with a declining slope of -0.43. Despite the decline, the comps are closer to meeting their leasing needs, highlighting more efficient tenant conversion. To maintain a healthy occupancy rate and ATR, the comps require approximately 3 leases per week.
+Overall Analysis
+The Carson Townhomes has shown positive growth in occupancy, RevPau, and NER, indicating effective rent management. However, the property's ATR remains high, and it faces significant challenges in traffic generation and lease conversions. The absence of traffic is particularly concerning and suggests a need for enhanced marketing strategies or increased visibility in the market. The property is also underperforming in leasing activity, requiring a significant increase to meet optimal performance targets.
+In comparison, the comps maintain a slightly higher occupancy and generate more consistent traffic and leases, despite a lower RevPau and NER. Their lower ATR and higher closing ratio of 0.36 compared to The Carson Townhomes' 0.14 indicate a more efficient conversion of interest into leases.
+For The Carson Townhomes, a critical focus should be on increasing traffic through targeted marketing efforts and improving lease conversion processes. Addressing these issues is essential to reduce the high ATR and capitalize on the property’s strong rent growth potential. The comps' stronger performance in generating traffic and leases provides a useful benchmark for setting achievable improvement goals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 La Borgata Apartments Analysis
 Current Performance Analysis
 La Borgata Apartments, a stabilized property with 143 units, shows a slight decline in occupancy to 93.7%, down by 0.7%. The RevPau has decreased by 3.2% to $1527, primarily driven by a 2.5% decrease in Net Effective Rent (NER) to $1630, despite the relatively high occupancy.
@@ -933,143 +1070,6 @@
 The leading indicators for La Borgata Apartments suggest a need for strategic intervention to improve performance. While the property is generating increased traffic, the high ATR % indicates a challenge in converting this traffic into occupied units. The closing ratio of 0.34 is slightly lower than the comps' 0.39, highlighting an opportunity to improve lease conversion rates.
 The comps are also facing challenges, with significant declines in RevPau and NER. However, their occupancy rate and lower ATR % suggest they are better managing their supply. Both La Borgata and the comps are experiencing higher ATRs, indicating an overall market trend of increased availability.
  </t>
-  </si>
-  <si>
-    <t>Vivere Apartments Analysis
-Current Performance Analysis
-Vivere Apartments, a stabilized property with 174 units, shows strong performance with a high occupancy of 97%, up by 1.3%. The RevPau has increased by 5.1% to $2953, driven by a 3.8% increase in Net Effective Rent (NER) to $3060, reflecting robust revenue growth and high occupancy.
-In comparison, the comps, with an average of 131 units, have an occupancy of 96%, with a minor increase of 0.3%. Their RevPau has increased by 6.1% to $3558, driven by a 5.8% increase in NER to $3723. This indicates that the comps are performing well in terms of rent and revenue growth, but Vivere Apartments has a higher occupancy rate.
-Leading Indicators
-ATR %:
-Vivere Apartments: ATR is 2%, with a slight negative slope of -0.01, indicating stable availability. An ATR below 6% is generally recognized as optimal, suggesting good management of supply.
-Comps: ATR is 5%, with a negative slope of -0.598, indicating decreasing availability. The comps are also maintaining a good balance between supply and demand.
-Traffic per Week:
-Vivere Apartments: Traffic is 7 per week, with a negative slope of -0.3, indicating a decrease in visitor traffic. Based on historical data, Vivere Apartments needs 8 traffic pieces per week to meet leasing targets and maintain a healthy occupancy rate. Currently, the property is slightly below this target.
-Comps: Traffic is 8 per week, with a positive slope of 0.93, indicating an increase in visitor traffic. The comps need 8 traffic pieces per week to meet their leasing targets and are currently meeting this criterion.
-Leases per Week:
-Vivere Apartments: Leases are 0 per week, with a negative slope of -0.5, indicating a lack of lease signings. Based on historical data, Vivere Apartments needs 4 leases per week to achieve a 6% ATR in 60 days. This is a critical area for improvement to maintain occupancy and revenue growth.
-Comps: Leases are 3 per week, with a positive slope of 0.17, indicating stable leasing activity. The comps need 3 leases per week to manage their ATR effectively and are currently meeting this target.
-Overall Analysis
-The leading indicators for Vivere Apartments suggest a need for strategies to improve lease signings and traffic conversion rates. While the property has a high occupancy rate and positive revenue growth, the zero leases per week and low closing ratio are areas of concern.
-The comps are performing better in terms of RevPau, Net Effective Rent, and lease signings. They are also attracting slightly more traffic per week with a higher closing ratio, indicating effective conversion strategies. The closing ratio for Vivere Apartments is 0.19, significantly lower than the comps' 0.4, indicating a need to improve the conversion rate of traffic into leases to sustain and enhance market position.</t>
-  </si>
-  <si>
-    <t>Alister Galleria Analysis
-Current Performance Analysis
-Alister Galleria, a stabilized property with 219 units, shows a high occupancy of 97%, up by 1.6%. The RevPau has increased by 2.6% to $1436, driven by a 1.1% increase in Net Effective Rent (NER) to $1488. This reflects steady revenue growth and high occupancy.
-In comparison, the comps, with an average of 305 units, have an occupancy of 94%, with a decrease of 0.6%. Their RevPau has decreased by 0.8% to $1385, driven by a 0.7% decrease in NER to $1520. This indicates that the comps are experiencing a slight decline in both revenue and rent.
-Leading Indicators
-ATR %:
-Alister Galleria: ATR is 1%, with a negative slope of -0.17, indicating decreasing availability. An ATR below 6% is generally recognized as optimal, suggesting good management of supply.
-Comps: ATR is 5%, with a negative slope of -0.362, indicating decreasing availability. The comps are also maintaining a good balance between supply and demand.
-Traffic per Week:
-Alister Galleria: Traffic is 0 per week, with a significant negative slope of -1.8, indicating a lack of visitor traffic. Based on historical data, Alister Galleria needs 7 traffic pieces per week to meet leasing targets and maintain a healthy occupancy rate. Currently, the property is well below this target.
-Comps: Traffic is 7 per week, with a negative slope of -1.09, indicating a decrease in visitor traffic. The comps need 7 traffic pieces per week to meet their leasing targets and are currently meeting this criterion.
-Leases per Week:
-Alister Galleria: Leases are 0 per week, with a negative slope of -0.5, indicating a lack of lease signings. Based on historical data, Alister Galleria needs 3 leases per week to achieve a 6% ATR in 60 days. This is a critical area for improvement to maintain occupancy and revenue growth.
-Comps: Leases are 3 per week, with a negative slope of -0.28, indicating stable leasing activity. The comps need 3 leases per week to manage their ATR effectively and are currently meeting this target.
-Overall Analysis
-The leading indicators for Alister Galleria suggest a need for strategies to improve lease signings and traffic conversion rates. While the property has a high occupancy rate and positive revenue growth, the zero leases per week, lack of traffic, and moderate closing ratio are areas of concern.
-The comps are performing better in terms of lease signings and have a higher closing ratio, which helps in maintaining occupancy and revenue. The closing ratio for Alister Galleria is 0.26, significantly lower than the comps' 0.43, indicating a need to improve the conversion rate of traffic into leases to sustain and enhance market position.</t>
-  </si>
-  <si>
-    <t>Modera Trinity Analysis
-Current Performance Analysis
-Modera Trinity has 194 units, currently showing an occupancy of 14%, which has increased by 123%. The RevPau has increased significantly by 114% to $314. However, the Net Effective Rent (NER) has decreased by 4% to $2210. Despite the high increase in occupancy and RevPau, the property is facing rent sensitivity as indicated by the decrease in NER.
-Comps Data: The comps have an average of 309 units with an occupancy of 74%, which has increased by 4%. Their RevPau is $1234, up by 4%, while their NER is $1686, showing a slight decrease of 1%. This suggests that while comps are seeing modest revenue growth, they are also facing rent sensitivity.
-Leading Indicators
-ATR %:
-Modera Trinity: ATR is 81%, with a negative slope of -1.7, indicating a decreasing trend. An ATR above 10% suggests oversupply, which can lead to increased competition and pressure on rents.
-Comps: ATR is 22%, with a positive slope of 1.036, indicating an increasing trend in availability, although it is much lower than Modera Trinity's ATR.
-Traffic per Week:
-Modera Trinity: Traffic is 19 per week, with a positive slope of 2.8, indicating an increase in visitor traffic. Based on historical data, Modera Trinity needs to maintain at least 19 traffic pieces per week to meet leasing targets and manage ATR effectively. Currently, the property is meeting this criterion.
-Comps: Traffic is 14 per week, with a negative slope of -0.81, indicating a decrease in traffic. The comps need 14 traffic pieces per week to meet their leasing targets. While they are currently meeting this criterion, the downward trend is concerning.
-Leases per Week:
-Modera Trinity: Leases are 10 per week, with a positive slope of 1.2, indicating strong leasing activity. Modera Trinity averages 10 leases per week, which meets the threshold needed to manage its high ATR. The positive trend suggests an improving leasing performance.
-Comps: Leases are 5 per week, with a positive slope of 0.32, indicating stable leasing activity. The comps need to maintain or increase this rate to manage their ATR effectively.
-Overall Analysis
-The leading indicators for Modera Trinity suggest that while the property is generating substantial traffic and leasing activity, the high ATR % indicates a significant oversupply of available units. This oversupply needs to be managed to improve overall performance. The decreasing NER also indicates rent sensitivity, which may require strategic pricing adjustments or concessions to attract and retain tenants.
-Comps are experiencing stable occupancy and RevPau growth, but they also face challenges with decreasing traffic and a lower closing ratio. They need to monitor their increasing ATR and work on strategies to boost traffic and leasing activity.
-For Modera Trinity, the focus should be on maintaining high leasing activity and traffic while working to reduce the ATR %. Strategies to improve the closing ratio and manage rent sensitivity, such as targeted marketing and promotions, could help enhance performance. Monitoring both the property and comps' metrics closely will be crucial for making informed strategic decisions.</t>
-  </si>
-  <si>
-    <t>Modera Broadway Analysis
-Current Performance Analysis
-Modera Broadway, a stabilized property with 228 units, demonstrates strong market performance with an occupancy rate of 97.4%, up by 1.0%. However, despite this high occupancy, there is a slight decline in revenue metrics, with RevPau decreasing by 1.7% to $2313 and Net Effective Rent (NER) down by 2.7% to $2375. This suggests potential rent sensitivity, possibly due to market competition or pricing adjustments.
-In comparison, the comps, averaging 220 units, have a slightly lower occupancy at 95%, with a 0.6% increase. Their RevPau is higher at $2436, showing a modest increase of 0.6%, despite a 1.7% decrease in NER to $2532. The comps maintain higher revenue figures, possibly benefiting from a different pricing strategy or market positioning.
-Leading Indicators
-ATR %:
-Modera Broadway: The ATR is 5%, with a decreasing slope of -0.44, indicating a declining availability of units. This lower ATR is favorable and suggests healthy demand relative to the supply of units.
-Comps: The ATR is slightly higher at 5%, with a positive slope of 0.376, indicating a slight increase in available units. This upward trend in ATR could signal a need for increased leasing efforts.
-Traffic per Week:
-Modera Broadway: The property generates significant traffic with 31 visitors per week, trending upwards with a positive slope of 3. Based on historical data, Modera Broadway requires approximately 28 traffic pieces per week to maintain optimal leasing activity and occupancy levels. The current traffic exceeds this target, indicating strong market interest and effective marketing strategies.
-Comps: The comps experience much lower traffic, averaging 8 visits per week, with a positive slope of 1. The comps need about 8 traffic pieces per week to meet their leasing goals. While the current traffic is slightly below this target, the upward trend is encouraging for future leasing potential.
-Leases per Week:
-Modera Broadway: The property averages 3 leases per week, despite a downward trend with a slope of -0.3. This meets the historical threshold of 3 leases needed per week to sustain healthy occupancy and ATR levels. However, the declining trend suggests potential issues with lead conversion or market saturation, which may require strategic adjustments.
-Comps: The comps sign an average of 3 leases per week, with a slight positive slope of 1, showing a stable and slightly improving trend. This performance is slightly below the 3 leases per week target, indicating a need for strategies to boost lease conversions and occupancy.
-Overall Analysis
-Modera Broadway's leading indicators reflect a property that is performing well in terms of traffic generation and occupancy but experiencing some challenges in maintaining revenue growth and lease conversion rates. The property's ability to generate significant traffic suggests strong market appeal, but the slightly declining lease rate indicates that not all visitors are being successfully converted into tenants.
-To maintain and improve performance, a focus on enhancing the lease conversion process and possibly adjusting rental rates or incentives could be beneficial. The comps, while maintaining higher RevPau, are experiencing lower traffic and slightly better conversion rates, indicating a different set of challenges and opportunities. Both Modera Broadway and the comps need to carefully manage traffic and lease conversions to optimize occupancy and revenue outcomes.</t>
-  </si>
-  <si>
-    <t>Ten01 Analysis
-Current Performance Analysis
-Ten01, a stabilized property with 523 units, shows a moderate occupancy rate of 86%, which has decreased by 0.2%. Despite this slight drop in occupancy, the property has seen a significant increase in revenue metrics, with RevPau rising by 12.1% to $1566 and Net Effective Rent (NER) increasing by 12.3% to $1823. This strong growth in RevPau and NER indicates successful rent increases or improved revenue management strategies.
-In comparison, the comps, averaging 297 units, have a higher occupancy at 92%, with a slight increase of 0.1%. The comps' RevPau stands at $1813, reflecting a modest increase of 0.7%, while their NER is $1971, up by 0.6%. The comps maintain higher revenue figures but show less growth in rent compared to Ten01.
-Leading Indicators
-ATR %:
-Ten01: The ATR is 4%, with a decreasing slope of -0.24, indicating a reduction in available units. This relatively low ATR is favorable and suggests good demand management, with a limited number of vacant units.
-Comps: The ATR is higher at 8%, with a similar slope of -0.24, indicating a steady rate of decline. The higher ATR among comps suggests they have more units available, possibly indicating less demand pressure.
-Traffic per Week:
-Ten01: The property sees 26 traffic visits per week, though this is decreasing with a slope of -2.2. Based on historical data, Ten01 requires around 27 traffic pieces per week to sustain optimal leasing activity. The current traffic falls slightly short of this target, suggesting a need for increased marketing efforts to attract more potential tenants.
-Comps: The comps experience significantly lower traffic, averaging 11 visits per week, with a slight positive slope of 1. They need about 11 traffic pieces per week to meet their leasing targets, which they are currently achieving, though the low volume could impact future lease conversions.
-Leases per Week:
-Ten01: The property averages 5 leases per week, though this number is trending down with a slope of -1.3. This meets the historical threshold of approximately 5 leases needed per week to maintain healthy occupancy and ATR levels. However, the declining trend in leases is a concern and may indicate challenges in conversion or market competition.
-Comps: The comps average 4 leases per week, with a slight positive slope of 1. This stable leasing performance meets the target of 4 leases needed per week, suggesting consistent demand and effective leasing strategies.
-Overall Analysis
-The analysis for Ten01 indicates that while the property is achieving strong revenue growth through increased RevPau and NER, it is experiencing challenges in maintaining traffic and lease conversions. The declining traffic and leases per week suggest a potential saturation or need for renewed marketing and tenant engagement strategies. The property's relatively low ATR % indicates good control over unit availability, but sustaining high occupancy while growing rent revenues may require enhanced leasing efforts.
-In comparison, the comps exhibit higher occupancy and RevPau but with less aggressive growth in rent metrics. The higher ATR % among comps suggests they have a greater cushion of available units, possibly indicating less competitive pressure or more strategic leasing plans.
-For Ten01, focusing on increasing traffic to meet or exceed the required 27 visits per week and improving the conversion rate will be key to maintaining and enhancing performance. The comps' stable leasing performance and higher closing ratio of 0.44 highlight a more efficient conversion process, which Ten01 could aim to emulate or exceed to improve occupancy and revenue metrics further.</t>
-  </si>
-  <si>
-    <t>Modera Frisco Square Analysis
-Current Performance Analysis
-Modera Frisco Square, a stabilized property with 360 units, maintains a solid occupancy rate of 93%, up by 0.9%. However, the property is experiencing declines in revenue metrics, with RevPau decreasing by 6.2% to $1676 and Net Effective Rent (NER) dropping by 6.9% to $1797. These declines suggest possible rent concessions or market competition challenges affecting pricing power.
-In comparison, the comps, with an average of 329 units, show a significantly lower occupancy rate at 74%, though this has increased by 0.5%. The comps' RevPau stands at $1328, reflecting a modest increase of 1.5%, while their NER is $1804, up by 2.0%. Despite their lower occupancy, the comps manage a slight increase in revenue, indicating possibly better rent control or fewer discounts.
-Leading Indicators
-ATR %:
-Modera Frisco Square: The ATR is 9%, with a slight upward trend indicated by a slope of 0.07. This relatively high ATR suggests a notable number of available units, possibly indicating over-supply or weak demand.
-Comps: The ATR is significantly higher at 12%, with a slight downward slope of -0.19. The decreasing ATR suggests some improvement in filling vacancies, but the high value still indicates a substantial number of unoccupied units.
-Traffic per Week:
-Modera Frisco Square: The property receives an average of 17 visits per week, with no significant change, indicated by a slope of 0. Based on historical data, Modera Frisco Square requires approximately 25 traffic pieces per week to achieve optimal leasing targets. The current traffic falls short of this target, highlighting a need for increased marketing efforts to drive more prospective tenants to the property.
-Comps: The comps average 17 visits per week, with a slight positive slope of 1. They require about 25 traffic pieces per week, similar to the subject property, to meet leasing targets. The comps are currently below this threshold, suggesting challenges in generating sufficient interest.
-Leases per Week:
-Modera Frisco Square: The property signs an average of 2 leases per week, with a declining trend as indicated by a slope of -0.3. This performance meets only a fraction of the estimated need of 7 leases per week to maintain a healthy occupancy and ATR level, pointing to issues in converting traffic to signed leases.
-Comps: The comps average 4 leases per week, also with a declining slope of -0.42. To meet the threshold of achieving a 6% ATR in 60 days, the comps need to sign approximately 8 leases per week. Currently, they are 4 leases short of this target, highlighting more efficient tenant conversion is necessary.
-Overall Analysis
-Modera Frisco Square shows a stable occupancy but faces significant challenges in revenue metrics and leasing activity. The declining RevPau and NER suggest pressures to offer concessions or lower rents to maintain occupancy. The high ATR indicates a substantial number of vacant units, further complicating the property's market position. The property is also underperforming in traffic and leases per week, falling short of the required targets to sustain optimal operational levels.
-In comparison, the comps, while having a lower occupancy, manage to slightly increase their RevPau and NER. They also face a high ATR but show a minor improvement. The comps' higher closing ratio of 0.29 compared to Modera Frisco Square's 0.2 indicates more effective conversion of traffic into leases.
-For Modera Frisco Square, a strategic focus on boosting traffic through enhanced marketing and improving lease conversions will be crucial. Addressing the high ATR by either filling units more aggressively or re-evaluating pricing strategies to align with market conditions can help improve revenue outcomes. The comps' slightly better performance in revenue growth and conversion rates provides a benchmark for setting achievable targets and strategies.</t>
-  </si>
-  <si>
-    <t>The Carson Townhomes Analysis
-Current Performance Analysis
-The Carson Townhomes, a stabilized property with 40 units, currently has an occupancy rate of 88%, which has increased by 6.1%. The property has experienced strong growth in revenue metrics, with RevPau increasing by 9.6% to $2177 and Net Effective Rent (NER) rising by 3.3% to $2488. This positive trend in RevPau and NER indicates effective rent growth and management strategies.
-In comparison, the comps, with an average of 253 units, have a slightly higher occupancy rate at 90%, though it has decreased by 0.2%. The comps' RevPau stands at $1939, reflecting a modest increase of 3.1%, while their NER is $2137, up by 2.5%. The comps' lower RevPau and NER compared to The Carson Townhomes suggest that the subject property is capturing a premium in the market.
-Leading Indicators
-ATR %:
-The Carson Townhomes: The ATR is 10%, with a stable trend indicated by a slope of 0.0. This relatively high ATR suggests a significant number of available units, indicating an opportunity to improve occupancy rates further.
-Comps: The ATR is lower at 4%, with a decreasing slope of -0.953, indicating a reduction in available units. The lower ATR among comps suggests stronger demand or better unit absorption.
-Traffic per Week:
-The Carson Townhomes: The property currently reports no traffic per week, with a negative slope of -0.75. Based on historical data, The Carson Townhomes requires approximately 8 traffic pieces per week to meet optimal leasing targets. The absence of traffic is a significant concern, indicating a potential issue with marketing or visibility in the market.
-Comps: The comps experience an average of 11 visits per week, with a slight negative slope of -0.02. The comps need about 8 traffic pieces per week to meet leasing goals, indicating they are currently generating sufficient interest to meet their targets.
-Leases per Week:
-The Carson Townhomes: The property signs an average of 1 lease per week, with a slight upward trend as indicated by a slope of 0.15. This meets only a portion of the estimated need of approximately 3 leases per week to achieve a 6% ATR in 60 days, pointing to challenges in attracting and converting prospective tenants.
-Comps: The comps average 4 leases per week, with a declining slope of -0.43. Despite the decline, the comps are closer to meeting their leasing needs, highlighting more efficient tenant conversion. To maintain a healthy occupancy rate and ATR, the comps require approximately 3 leases per week.
-Overall Analysis
-The Carson Townhomes has shown positive growth in occupancy, RevPau, and NER, indicating effective rent management. However, the property's ATR remains high, and it faces significant challenges in traffic generation and lease conversions. The absence of traffic is particularly concerning and suggests a need for enhanced marketing strategies or increased visibility in the market. The property is also underperforming in leasing activity, requiring a significant increase to meet optimal performance targets.
-In comparison, the comps maintain a slightly higher occupancy and generate more consistent traffic and leases, despite a lower RevPau and NER. Their lower ATR and higher closing ratio of 0.36 compared to The Carson Townhomes' 0.14 indicate a more efficient conversion of interest into leases.
-For The Carson Townhomes, a critical focus should be on increasing traffic through targeted marketing efforts and improving lease conversion processes. Addressing these issues is essential to reduce the high ATR and capitalize on the property’s strong rent growth potential. The comps' stronger performance in generating traffic and leases provides a useful benchmark for setting achievable improvement goals.</t>
   </si>
 </sst>
 </file>
@@ -1946,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E0BF37-7FEB-4B20-BE5C-535FE853DC33}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="103" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1990,7 +1990,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -2024,7 +2024,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -2041,7 +2041,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -2058,7 +2058,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -2075,7 +2075,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -2092,7 +2092,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -2109,7 +2109,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -2126,7 +2126,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">

--- a/processed_properties.xlsx
+++ b/processed_properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlbanaZejnullahi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3110DBBE-FCF7-42C2-A961-5BC8FCCFC13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE32B7A-41C1-4E67-B872-EE490DDF757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6A73989-3CEB-4B5D-9434-0D88FB5EDD02}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Property ID</t>
   </si>
@@ -1070,6 +1070,26 @@
 The leading indicators for La Borgata Apartments suggest a need for strategic intervention to improve performance. While the property is generating increased traffic, the high ATR % indicates a challenge in converting this traffic into occupied units. The closing ratio of 0.34 is slightly lower than the comps' 0.39, highlighting an opportunity to improve lease conversion rates.
 The comps are also facing challenges, with significant declines in RevPau and NER. However, their occupancy rate and lower ATR % suggest they are better managing their supply. Both La Borgata and the comps are experiencing higher ATRs, indicating an overall market trend of increased availability.
  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Modera Waugh Analysis
+Current Performance Analysis
+Modera Waugh, a lease-up property with 393 units, has demonstrated significant improvements. The occupancy rate has increased dramatically to 26.8%, up by 94.2%. The RevPau has surged by 101.2% to $694, driven by a 3.5% increase in Net Effective Rent (NER) to $2588. These metrics indicate strong growth in revenue and leasing activity during the early phase of lease-up.
+In comparison, the comps, averaging 317 units, have a higher occupancy rate at 94.9%, though it has decreased slightly by 0.1%. Their RevPau has decreased by 3.0% to $3266, alongside a 2.7% drop in NER to $3449, suggesting that these properties are experiencing rent sensitivity possibly due to market saturation or increased competition.
+Leading Indicators
+ATR %:
+Modera Waugh: The property currently has an ATR % of 62.2%, with a negative slope of -0.66, indicating a decrease. A high ATR % is expected in the lease-up stage, reflecting substantial availability. However, this rate should continue to decrease as units are leased up.
+Comps: The comps have a low ATR % of 1.52%, with a slight positive slope of 0.172. The low ATR % indicates tight inventory control and effective management, as they maintain limited availability.
+Traffic per Week:
+Modera Waugh: The property is seeing 12 traffic visits per week, with a declining trend (slope of -8.5). The closing ratio is relatively strong at 0.33. To meet leasing targets and sustain occupancy growth, historical data indicates that Modera Waugh needs at least 14 traffic visits per week. Currently, the property is not meeting this criterion, suggesting a need for improved marketing and outreach efforts to attract more visitors.
+Comps: The comps are experiencing 14 traffic visits per week, with a minor decline (slope of -0.52). They require at least 14 traffic visits per week to meet leasing targets and manage their inventory effectively. The current level meets this requirement, but the declining trend warrants attention to maintain traffic flow.
+Leases per Week:
+Modera Waugh: The property is currently achieving 5 leases per week, though this rate has been declining (slope of -2.3). To maintain a healthy occupancy rate and manage the ATR, Modera Waugh needs to secure at least 3 leases per week. The current leasing rate exceeds this target, suggesting that, despite challenges, leasing efforts have been effective.
+Comps: The comps average 3 leases per week, with a minimal decline (slope of -0.04). This rate meets the threshold necessary for maintaining a balanced ATR and occupancy. However, to continue effective management and avoid future vacancies, the comps must aim to maintain at least 3 leases per week consistently.
+Overall Analysis
+The data for Modera Waugh indicate strong initial performance in occupancy and revenue growth, typical for a lease-up property. However, the high ATR % and the declining traffic suggest the property must enhance its strategies to attract more prospective tenants and convert them into leases. Increasing traffic to at least 14 visits per week and maintaining a leasing rate of 3 or more per week will be crucial for continued success.
+For the comps, despite experiencing some rent sensitivity and slight declines in revenue metrics, the high occupancy and low ATR % reflect strong management. Maintaining at least 3 leases per week is critical to sustaining their current market position. The comps should focus on stabilizing traffic and lease numbers to continue managing their inventory effectively amidst competitive market conditions.</t>
   </si>
 </sst>
 </file>
@@ -1946,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E0BF37-7FEB-4B20-BE5C-535FE853DC33}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="103" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="103" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2129,7 +2149,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2141,6 +2161,9 @@
       </c>
       <c r="D11" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">

--- a/processed_properties.xlsx
+++ b/processed_properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlbanaZejnullahi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE32B7A-41C1-4E67-B872-EE490DDF757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D723F1-F3FC-4336-8991-D79A666E2AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6A73989-3CEB-4B5D-9434-0D88FB5EDD02}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="128">
   <si>
     <t>Property ID</t>
   </si>
@@ -1090,6 +1090,21 @@
 Overall Analysis
 The data for Modera Waugh indicate strong initial performance in occupancy and revenue growth, typical for a lease-up property. However, the high ATR % and the declining traffic suggest the property must enhance its strategies to attract more prospective tenants and convert them into leases. Increasing traffic to at least 14 visits per week and maintaining a leasing rate of 3 or more per week will be crucial for continued success.
 For the comps, despite experiencing some rent sensitivity and slight declines in revenue metrics, the high occupancy and low ATR % reflect strong management. Maintaining at least 3 leases per week is critical to sustaining their current market position. The comps should focus on stabilizing traffic and lease numbers to continue managing their inventory effectively amidst competitive market conditions.</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>OpenAI</t>
+  </si>
+  <si>
+    <t>No info</t>
+  </si>
+  <si>
+    <t>Anthropic</t>
+  </si>
+  <si>
+    <t>Cohere</t>
   </si>
 </sst>
 </file>
@@ -1573,21 +1588,31 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1964,461 +1989,1618 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E0BF37-7FEB-4B20-BE5C-535FE853DC33}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="103" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="103" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="67.5546875" customWidth="1"/>
+    <col min="1" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="67.5546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>68</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="360" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>80</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>84</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>88</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="360" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>92</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>96</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>100</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>104</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>108</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="3"/>
+    <row r="29" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="7" customFormat="1" ht="360" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="7" customFormat="1" ht="360" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="7" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="7" customFormat="1" ht="360" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="7" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
